--- a/data/output/FV2504_FV2410/UTILMD/55069.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55069.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="271">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="271">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -916,6 +916,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U117" totalsRowShown="0">
+  <autoFilter ref="A1:U117"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1205,7 +1235,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6871,5 +6904,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55069.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55069.xlsx
@@ -1712,7 +1712,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2428,7 +2428,7 @@
         <v>246</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4920,7 +4920,7 @@
         <v>251</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5124,7 +5124,7 @@
         <v>253</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5334,7 +5334,7 @@
         <v>254</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5462,52 +5462,52 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="2"/>
       <c r="L76" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="O76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P76" s="5"/>
+      <c r="P76" s="2"/>
       <c r="Q76" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5630,52 +5630,52 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="2"/>
       <c r="F79" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K79" s="5"/>
+      <c r="K79" s="2"/>
       <c r="L79" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M79" s="5" t="s">
+      <c r="M79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O79" s="5" t="s">
+      <c r="O79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P79" s="5"/>
+      <c r="P79" s="2"/>
       <c r="Q79" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V79" s="5"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6126,7 +6126,7 @@
         <v>255</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6498,7 +6498,7 @@
         <v>256</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6626,52 +6626,52 @@
       <c r="V97" s="5"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K98" s="5"/>
+      <c r="K98" s="2"/>
       <c r="L98" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="M98" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N98" s="5" t="s">
+      <c r="N98" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O98" s="5" t="s">
+      <c r="O98" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P98" s="5"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7116,52 +7116,52 @@
       <c r="V106" s="5"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="2"/>
       <c r="F107" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5" t="s">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K107" s="5"/>
+      <c r="K107" s="2"/>
       <c r="L107" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M107" s="5" t="s">
+      <c r="M107" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N107" s="5" t="s">
+      <c r="N107" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O107" s="5" t="s">
+      <c r="O107" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P107" s="5"/>
+      <c r="P107" s="2"/>
       <c r="Q107" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5" t="s">
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V107" s="5"/>
+      <c r="V107" s="2"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7340,52 +7340,52 @@
       <c r="V110" s="5"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="2"/>
       <c r="F111" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5" t="s">
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K111" s="5"/>
+      <c r="K111" s="2"/>
       <c r="L111" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M111" s="5" t="s">
+      <c r="M111" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N111" s="5" t="s">
+      <c r="N111" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O111" s="5" t="s">
+      <c r="O111" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P111" s="5"/>
+      <c r="P111" s="2"/>
       <c r="Q111" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5" t="s">
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V111" s="5"/>
+      <c r="V111" s="2"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -7564,48 +7564,48 @@
       <c r="V114" s="5"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5" t="s">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5" t="s">
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K115" s="5"/>
+      <c r="K115" s="2"/>
       <c r="L115" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="M115" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5" t="s">
+      <c r="N115" s="2"/>
+      <c r="O115" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P115" s="5"/>
+      <c r="P115" s="2"/>
       <c r="Q115" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5" t="s">
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V115" s="5"/>
+      <c r="V115" s="2"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
